--- a/Sax/Output/sliding_window/sax_via_sliding_window.xlsx
+++ b/Sax/Output/sliding_window/sax_via_sliding_window.xlsx
@@ -98,223 +98,223 @@
     <t>start</t>
   </si>
   <si>
-    <t>[0.04783011 0.15391359 0.31454873]</t>
-  </si>
-  <si>
-    <t>[0.08129171 0.18537821 0.30534314]</t>
-  </si>
-  <si>
-    <t>[0.24884321 0.26199406 0.46914422]</t>
-  </si>
-  <si>
-    <t>[0.25785398 0.26287078 0.43042229]</t>
-  </si>
-  <si>
-    <t>[0.32628708 0.33617457 0.65150261]</t>
-  </si>
-  <si>
-    <t>[0.32209829 0.36028445 0.70244995]</t>
-  </si>
-  <si>
-    <t>[0.34611076 0.35029955 0.71506502]</t>
-  </si>
-  <si>
-    <t>[0.15391359 0.31454873 0.42993522]</t>
-  </si>
-  <si>
-    <t>[0.26199406 0.46914422 0.55730359]</t>
-  </si>
-  <si>
-    <t>[0.33617457 0.65150261 0.76425893]</t>
-  </si>
-  <si>
-    <t>[0.87540792 0.76367444 0.46860845]</t>
-  </si>
-  <si>
-    <t>[0.73591155 0.69967366 0.47830111]</t>
-  </si>
-  <si>
-    <t>[0.31454873 0.42993522 0.43928693]</t>
-  </si>
-  <si>
-    <t>[0.30534314 0.40017534 0.50450538]</t>
-  </si>
-  <si>
-    <t>[0.46914422 0.55730359 0.74677317]</t>
-  </si>
-  <si>
-    <t>[0.65150261 0.76425893 0.80108129]</t>
-  </si>
-  <si>
-    <t>[0.71506502 0.80692611 0.73591155]</t>
-  </si>
-  <si>
-    <t>[0.40051629 0.19141786 0.13068043]</t>
-  </si>
-  <si>
-    <t>[0.51809459 0.32024743 0.16701573]</t>
-  </si>
-  <si>
-    <t>[0.5965613  0.32633578 0.14972481]</t>
-  </si>
-  <si>
-    <t>[0.63382203 0.46792655 0.23077298]</t>
-  </si>
-  <si>
-    <t>[0.76367444 0.46860845 0.44805416]</t>
-  </si>
-  <si>
-    <t>[0.69967366 0.47830111 0.46490673]</t>
-  </si>
-  <si>
-    <t>[0.19141786 0.13068043 0.07213482]</t>
-  </si>
-  <si>
-    <t>[0.19370708 0.18489114 0.14066534]</t>
-  </si>
-  <si>
-    <t>[0.2715406  0.11723735 0.09945935]</t>
-  </si>
-  <si>
-    <t>[0.21659929 0.35025084 0.1581998 ]</t>
-  </si>
-  <si>
-    <t>[0.32024743 0.16701573 0.        ]</t>
-  </si>
-  <si>
-    <t>[0.32633578 0.14972481 0.11660416]</t>
-  </si>
-  <si>
-    <t>[0.40738396 0.50499245 0.34387024]</t>
-  </si>
-  <si>
-    <t>[0.46792655 0.23077298 0.2544445 ]</t>
-  </si>
-  <si>
-    <t>[0.44732356 0.39871414 0.30052116]</t>
-  </si>
-  <si>
-    <t>[0.46860845 0.44805416 0.2594613 ]</t>
-  </si>
-  <si>
-    <t>[0.42141152 0.38312795 0.39111587]</t>
-  </si>
-  <si>
-    <t>[0.13068043 0.07213482 0.19370708]</t>
-  </si>
-  <si>
-    <t>[0.09945935 0.21659929 0.35025084]</t>
-  </si>
-  <si>
-    <t>[0.11660416 0.40738396 0.50499245]</t>
-  </si>
-  <si>
-    <t>[0.23077298 0.2544445  0.44732356]</t>
-  </si>
-  <si>
-    <t>[0.44805416 0.2594613  0.56314841]</t>
-  </si>
-  <si>
-    <t>[0.18489114 0.14066534 0.08129171]</t>
-  </si>
-  <si>
-    <t>[0.35025084 0.1581998  0.24884321]</t>
-  </si>
-  <si>
-    <t>[0.3257513  0.24426477 0.25785398]</t>
-  </si>
-  <si>
-    <t>[0.50499245 0.34387024 0.32628708]</t>
-  </si>
-  <si>
-    <t>[0.39871414 0.30052116 0.32209829]</t>
-  </si>
-  <si>
-    <t>[0.59076518 0.53786956 0.34611076]</t>
-  </si>
-  <si>
-    <t>[0.58418976 0.44576494 0.32424139]</t>
-  </si>
-  <si>
-    <t>[0.14066534 0.08129171 0.18537821]</t>
-  </si>
-  <si>
-    <t>[0.1581998  0.24884321 0.26199406]</t>
-  </si>
-  <si>
-    <t>[0.24426477 0.25785398 0.26287078]</t>
-  </si>
-  <si>
-    <t>[0.34387024 0.32628708 0.33617457]</t>
-  </si>
-  <si>
-    <t>[0.30052116 0.32209829 0.36028445]</t>
-  </si>
-  <si>
-    <t>[0.53786956 0.34611076 0.35029955]</t>
-  </si>
-  <si>
-    <t>[0.18537821 0.30534314 0.40017534]</t>
-  </si>
-  <si>
-    <t>[0.26287078 0.43042229 0.72139691]</t>
-  </si>
-  <si>
-    <t>[0.36028445 0.70244995 0.85514588]</t>
-  </si>
-  <si>
-    <t>[0.35029955 0.71506502 0.80692611]</t>
-  </si>
-  <si>
-    <t>[0.29418927 0.75091325 0.68793532]</t>
-  </si>
-  <si>
-    <t>[0.40017534 0.50450538 0.4019775 ]</t>
-  </si>
-  <si>
-    <t>[0.55730359 0.74677317 0.51809459]</t>
-  </si>
-  <si>
-    <t>[0.43042229 0.72139691 0.7091715 ]</t>
-  </si>
-  <si>
-    <t>[0.4019775  0.2715406  0.11723735]</t>
-  </si>
-  <si>
-    <t>[0.56314841 0.59076518 0.53786956]</t>
-  </si>
-  <si>
-    <t>[0.32424139 0.29418927 0.75091325]</t>
-  </si>
-  <si>
-    <t>[0.90170961 0.80590327 0.42141152]</t>
-  </si>
-  <si>
-    <t>[0.75091325 0.68793532 0.90170961]</t>
-  </si>
-  <si>
-    <t>[0.80590327 0.42141152 0.38312795]</t>
-  </si>
-  <si>
-    <t>[0.5659247  0.5139058  0.39671716]</t>
-  </si>
-  <si>
-    <t>[0.38312795 0.39111587 0.5659247 ]</t>
-  </si>
-  <si>
-    <t>[0.5139058  0.39671716 0.37221762]</t>
-  </si>
-  <si>
-    <t>[0.44576494 0.32424139 0.29418927]</t>
-  </si>
-  <si>
-    <t>[0.42292144 0.70970727 0.78695631]</t>
-  </si>
-  <si>
-    <t>[0.70244995 0.85514588 0.87540792]</t>
-  </si>
-  <si>
-    <t>[0.51468511 0.58418976 0.44576494]</t>
+    <t>[ 6550.  8728. 12026.]</t>
+  </si>
+  <si>
+    <t>[ 7237.  9374. 11837.]</t>
+  </si>
+  <si>
+    <t>[10677. 10947. 15200.]</t>
+  </si>
+  <si>
+    <t>[10862. 10965. 14405.]</t>
+  </si>
+  <si>
+    <t>[12267. 12470. 18944.]</t>
+  </si>
+  <si>
+    <t>[12181. 12965. 19990.]</t>
+  </si>
+  <si>
+    <t>[12674. 12760. 20249.]</t>
+  </si>
+  <si>
+    <t>[ 8728. 12026. 14395.]</t>
+  </si>
+  <si>
+    <t>[10947. 15200. 17010.]</t>
+  </si>
+  <si>
+    <t>[12470. 18944. 21259.]</t>
+  </si>
+  <si>
+    <t>[23541. 21247. 15189.]</t>
+  </si>
+  <si>
+    <t>[20677. 19933. 15388.]</t>
+  </si>
+  <si>
+    <t>[12026. 14395. 14587.]</t>
+  </si>
+  <si>
+    <t>[11837. 13784. 15926.]</t>
+  </si>
+  <si>
+    <t>[15200. 17010. 20900.]</t>
+  </si>
+  <si>
+    <t>[18944. 21259. 22015.]</t>
+  </si>
+  <si>
+    <t>[20249. 22135. 20677.]</t>
+  </si>
+  <si>
+    <t>[13791.  9498.  8251.]</t>
+  </si>
+  <si>
+    <t>[16205. 12143.  8997.]</t>
+  </si>
+  <si>
+    <t>[17816. 12268.  8642.]</t>
+  </si>
+  <si>
+    <t>[18581. 15175. 10306.]</t>
+  </si>
+  <si>
+    <t>[21247. 15189. 14767.]</t>
+  </si>
+  <si>
+    <t>[19933. 15388. 15113.]</t>
+  </si>
+  <si>
+    <t>[9498. 8251. 7049.]</t>
+  </si>
+  <si>
+    <t>[9545. 9364. 8456.]</t>
+  </si>
+  <si>
+    <t>[11143.  7975.  7610.]</t>
+  </si>
+  <si>
+    <t>[10015. 12759.  8816.]</t>
+  </si>
+  <si>
+    <t>[12143.  8997.  5568.]</t>
+  </si>
+  <si>
+    <t>[12268.  8642.  7962.]</t>
+  </si>
+  <si>
+    <t>[13932. 15936. 12628.]</t>
+  </si>
+  <si>
+    <t>[15175. 10306. 10792.]</t>
+  </si>
+  <si>
+    <t>[14752. 13754. 11738.]</t>
+  </si>
+  <si>
+    <t>[15189. 14767. 10895.]</t>
+  </si>
+  <si>
+    <t>[14220. 13434. 13598.]</t>
+  </si>
+  <si>
+    <t>[8251. 7049. 9545.]</t>
+  </si>
+  <si>
+    <t>[ 7610. 10015. 12759.]</t>
+  </si>
+  <si>
+    <t>[ 7962. 13932. 15936.]</t>
+  </si>
+  <si>
+    <t>[10306. 10792. 14752.]</t>
+  </si>
+  <si>
+    <t>[14767. 10895. 17130.]</t>
+  </si>
+  <si>
+    <t>[9364. 8456. 7237.]</t>
+  </si>
+  <si>
+    <t>[12759.  8816. 10677.]</t>
+  </si>
+  <si>
+    <t>[12256. 10583. 10862.]</t>
+  </si>
+  <si>
+    <t>[15936. 12628. 12267.]</t>
+  </si>
+  <si>
+    <t>[13754. 11738. 12181.]</t>
+  </si>
+  <si>
+    <t>[17697. 16611. 12674.]</t>
+  </si>
+  <si>
+    <t>[17562. 14720. 12225.]</t>
+  </si>
+  <si>
+    <t>[8456. 7237. 9374.]</t>
+  </si>
+  <si>
+    <t>[ 8816. 10677. 10947.]</t>
+  </si>
+  <si>
+    <t>[10583. 10862. 10965.]</t>
+  </si>
+  <si>
+    <t>[12628. 12267. 12470.]</t>
+  </si>
+  <si>
+    <t>[11738. 12181. 12965.]</t>
+  </si>
+  <si>
+    <t>[16611. 12674. 12760.]</t>
+  </si>
+  <si>
+    <t>[ 9374. 11837. 13784.]</t>
+  </si>
+  <si>
+    <t>[10965. 14405. 20379.]</t>
+  </si>
+  <si>
+    <t>[12965. 19990. 23125.]</t>
+  </si>
+  <si>
+    <t>[12760. 20249. 22135.]</t>
+  </si>
+  <si>
+    <t>[11608. 20985. 19692.]</t>
+  </si>
+  <si>
+    <t>[13784. 15926. 13821.]</t>
+  </si>
+  <si>
+    <t>[17010. 20900. 16205.]</t>
+  </si>
+  <si>
+    <t>[14405. 20379. 20128.]</t>
+  </si>
+  <si>
+    <t>[13821. 11143.  7975.]</t>
+  </si>
+  <si>
+    <t>[17130. 17697. 16611.]</t>
+  </si>
+  <si>
+    <t>[12225. 11608. 20985.]</t>
+  </si>
+  <si>
+    <t>[24081. 22114. 14220.]</t>
+  </si>
+  <si>
+    <t>[20985. 19692. 24081.]</t>
+  </si>
+  <si>
+    <t>[22114. 14220. 13434.]</t>
+  </si>
+  <si>
+    <t>[17187. 16119. 13713.]</t>
+  </si>
+  <si>
+    <t>[13434. 13598. 17187.]</t>
+  </si>
+  <si>
+    <t>[16119. 13713. 13210.]</t>
+  </si>
+  <si>
+    <t>[14720. 12225. 11608.]</t>
+  </si>
+  <si>
+    <t>[14251. 20139. 21725.]</t>
+  </si>
+  <si>
+    <t>[19990. 23125. 23541.]</t>
+  </si>
+  <si>
+    <t>[16135. 17562. 14720.]</t>
   </si>
 </sst>
 </file>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0478301105645122</v>
+        <v>6550</v>
       </c>
       <c r="E2">
-        <v>0.153913594077249</v>
+        <v>8728</v>
       </c>
       <c r="F2">
-        <v>0.3145487311869855</v>
+        <v>12026</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -818,13 +818,13 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>0.08129170522624324</v>
+        <v>7237</v>
       </c>
       <c r="E3">
-        <v>0.1853782085626614</v>
+        <v>9374</v>
       </c>
       <c r="F3">
-        <v>0.3053431396424918</v>
+        <v>11837</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -838,13 +838,13 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>0.2488432127027422</v>
+        <v>10677</v>
       </c>
       <c r="E4">
-        <v>0.2619940577663046</v>
+        <v>10947</v>
       </c>
       <c r="F4">
-        <v>0.4691442209341971</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -858,13 +858,13 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>0.2578539769129609</v>
+        <v>10862</v>
       </c>
       <c r="E5">
-        <v>0.2628707807705421</v>
+        <v>10965</v>
       </c>
       <c r="F5">
-        <v>0.430422288247041</v>
+        <v>14405</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -878,13 +878,13 @@
         <v>48</v>
       </c>
       <c r="D6">
-        <v>0.3262870780770542</v>
+        <v>12267</v>
       </c>
       <c r="E6">
-        <v>0.3361745652915104</v>
+        <v>12470</v>
       </c>
       <c r="F6">
-        <v>0.6515026058155959</v>
+        <v>18944</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -898,13 +898,13 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>0.3220982903901418</v>
+        <v>12181</v>
       </c>
       <c r="E7">
-        <v>0.3602844479080415</v>
+        <v>12965</v>
       </c>
       <c r="F7">
-        <v>0.7024499537285082</v>
+        <v>19990</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -918,13 +918,13 @@
         <v>72</v>
       </c>
       <c r="D8">
-        <v>0.3461107593395353</v>
+        <v>12674</v>
       </c>
       <c r="E8">
-        <v>0.3502995470264478</v>
+        <v>12760</v>
       </c>
       <c r="F8">
-        <v>0.7150650236228143</v>
+        <v>20249</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -938,13 +938,13 @@
         <v>84</v>
       </c>
       <c r="D9">
-        <v>0.3242413910671667</v>
+        <v>12225</v>
       </c>
       <c r="E9">
-        <v>0.2941892747552481</v>
+        <v>11608</v>
       </c>
       <c r="F9">
-        <v>0.750913253129414</v>
+        <v>20985</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.153913594077249</v>
+        <v>8728</v>
       </c>
       <c r="E10">
-        <v>0.3145487311869855</v>
+        <v>12026</v>
       </c>
       <c r="F10">
-        <v>0.4299352199113536</v>
+        <v>14395</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -978,13 +978,13 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>0.2619940577663046</v>
+        <v>10947</v>
       </c>
       <c r="E11">
-        <v>0.4691442209341971</v>
+        <v>15200</v>
       </c>
       <c r="F11">
-        <v>0.557303589693634</v>
+        <v>17010</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -998,13 +998,13 @@
         <v>49</v>
       </c>
       <c r="D12">
-        <v>0.3361745652915104</v>
+        <v>12470</v>
       </c>
       <c r="E12">
-        <v>0.6515026058155959</v>
+        <v>18944</v>
       </c>
       <c r="F12">
-        <v>0.7642589255272515</v>
+        <v>21259</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1018,13 +1018,13 @@
         <v>64</v>
       </c>
       <c r="D13">
-        <v>0.8754079197311383</v>
+        <v>23541</v>
       </c>
       <c r="E13">
-        <v>0.7636744435244265</v>
+        <v>21247</v>
       </c>
       <c r="F13">
-        <v>0.4686084457649408</v>
+        <v>15189</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1038,13 +1038,13 @@
         <v>76</v>
       </c>
       <c r="D14">
-        <v>0.7359115483902392</v>
+        <v>20677</v>
       </c>
       <c r="E14">
-        <v>0.6996736642150894</v>
+        <v>19933</v>
       </c>
       <c r="F14">
-        <v>0.478301105645122</v>
+        <v>15388</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1058,13 +1058,13 @@
         <v>88</v>
       </c>
       <c r="D15">
-        <v>0.9017096098582631</v>
+        <v>24081</v>
       </c>
       <c r="E15">
-        <v>0.8059032682285324</v>
+        <v>22114</v>
       </c>
       <c r="F15">
-        <v>0.4214115240368224</v>
+        <v>14220</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1078,13 +1078,13 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>0.3145487311869855</v>
+        <v>12026</v>
       </c>
       <c r="E16">
-        <v>0.4299352199113536</v>
+        <v>14395</v>
       </c>
       <c r="F16">
-        <v>0.4392869319565535</v>
+        <v>14587</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1098,13 +1098,13 @@
         <v>14</v>
       </c>
       <c r="D17">
-        <v>0.3053431396424918</v>
+        <v>11837</v>
       </c>
       <c r="E17">
-        <v>0.4001753446008475</v>
+        <v>13784</v>
       </c>
       <c r="F17">
-        <v>0.5045053821051093</v>
+        <v>15926</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1118,13 +1118,13 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>0.4691442209341971</v>
+        <v>15200</v>
       </c>
       <c r="E18">
-        <v>0.557303589693634</v>
+        <v>17010</v>
       </c>
       <c r="F18">
-        <v>0.7467731722760703</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1138,13 +1138,13 @@
         <v>50</v>
       </c>
       <c r="D19">
-        <v>0.6515026058155959</v>
+        <v>18944</v>
       </c>
       <c r="E19">
-        <v>0.7642589255272515</v>
+        <v>21259</v>
       </c>
       <c r="F19">
-        <v>0.8010812917052262</v>
+        <v>22015</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1158,13 +1158,13 @@
         <v>74</v>
       </c>
       <c r="D20">
-        <v>0.7150650236228143</v>
+        <v>20249</v>
       </c>
       <c r="E20">
-        <v>0.8069261117334762</v>
+        <v>22135</v>
       </c>
       <c r="F20">
-        <v>0.7359115483902392</v>
+        <v>20677</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1178,13 +1178,13 @@
         <v>86</v>
       </c>
       <c r="D21">
-        <v>0.750913253129414</v>
+        <v>20985</v>
       </c>
       <c r="E21">
-        <v>0.6879353173250207</v>
+        <v>19692</v>
       </c>
       <c r="F21">
-        <v>0.9017096098582631</v>
+        <v>24081</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1198,13 +1198,13 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>0.4005162924358288</v>
+        <v>13791</v>
       </c>
       <c r="E22">
-        <v>0.1914178559251863</v>
+        <v>9498</v>
       </c>
       <c r="F22">
-        <v>0.1306804344649554</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1218,13 +1218,13 @@
         <v>29</v>
       </c>
       <c r="D23">
-        <v>0.5180945886707905</v>
+        <v>16205</v>
       </c>
       <c r="E23">
-        <v>0.3202474307145293</v>
+        <v>12143</v>
       </c>
       <c r="F23">
-        <v>0.1670157323072427</v>
+        <v>8997</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1238,13 +1238,13 @@
         <v>41</v>
       </c>
       <c r="D24">
-        <v>0.5965612975500463</v>
+        <v>17816</v>
       </c>
       <c r="E24">
-        <v>0.326335784910623</v>
+        <v>12268</v>
       </c>
       <c r="F24">
-        <v>0.1497248063903366</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1258,13 +1258,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>0.6338220252301398</v>
+        <v>18581</v>
       </c>
       <c r="E25">
-        <v>0.4679265500949783</v>
+        <v>15175</v>
       </c>
       <c r="F25">
-        <v>0.2307729774487361</v>
+        <v>10306</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1278,13 +1278,13 @@
         <v>65</v>
       </c>
       <c r="D26">
-        <v>0.7636744435244265</v>
+        <v>21247</v>
       </c>
       <c r="E26">
-        <v>0.4686084457649408</v>
+        <v>15189</v>
       </c>
       <c r="F26">
-        <v>0.4480541619989284</v>
+        <v>14767</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1298,13 +1298,13 @@
         <v>77</v>
       </c>
       <c r="D27">
-        <v>0.6996736642150894</v>
+        <v>19933</v>
       </c>
       <c r="E27">
-        <v>0.478301105645122</v>
+        <v>15388</v>
       </c>
       <c r="F27">
-        <v>0.4649067264137158</v>
+        <v>15113</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1318,13 +1318,13 @@
         <v>89</v>
       </c>
       <c r="D28">
-        <v>0.8059032682285324</v>
+        <v>22114</v>
       </c>
       <c r="E28">
-        <v>0.4214115240368224</v>
+        <v>14220</v>
       </c>
       <c r="F28">
-        <v>0.3831279528517851</v>
+        <v>13434</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1338,13 +1338,13 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>0.1914178559251863</v>
+        <v>9498</v>
       </c>
       <c r="E29">
-        <v>0.1306804344649554</v>
+        <v>8251</v>
       </c>
       <c r="F29">
-        <v>0.0721348205153183</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1358,13 +1358,13 @@
         <v>9</v>
       </c>
       <c r="D30">
-        <v>0.1937070771029175</v>
+        <v>9545</v>
       </c>
       <c r="E30">
-        <v>0.1848911402269738</v>
+        <v>9364</v>
       </c>
       <c r="F30">
-        <v>0.1406653353465491</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1378,13 +1378,13 @@
         <v>18</v>
       </c>
       <c r="D31">
-        <v>0.2715405971457795</v>
+        <v>11143</v>
       </c>
       <c r="E31">
-        <v>0.1172373483999805</v>
+        <v>7975</v>
       </c>
       <c r="F31">
-        <v>0.09945935414738688</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1398,13 +1398,13 @@
         <v>21</v>
       </c>
       <c r="D32">
-        <v>0.2165992888802299</v>
+        <v>10015</v>
       </c>
       <c r="E32">
-        <v>0.3502508401928791</v>
+        <v>12759</v>
       </c>
       <c r="F32">
-        <v>0.158199795431299</v>
+        <v>8816</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1418,13 +1418,13 @@
         <v>30</v>
       </c>
       <c r="D33">
-        <v>0.3202474307145293</v>
+        <v>12143</v>
       </c>
       <c r="E33">
-        <v>0.1670157323072427</v>
+        <v>8997</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1438,13 +1438,13 @@
         <v>42</v>
       </c>
       <c r="D34">
-        <v>0.326335784910623</v>
+        <v>12268</v>
       </c>
       <c r="E34">
-        <v>0.1497248063903366</v>
+        <v>8642</v>
       </c>
       <c r="F34">
-        <v>0.1166041595635868</v>
+        <v>7962</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1458,13 +1458,13 @@
         <v>45</v>
       </c>
       <c r="D35">
-        <v>0.4073839559690224</v>
+        <v>13932</v>
       </c>
       <c r="E35">
-        <v>0.5049924504407969</v>
+        <v>15936</v>
       </c>
       <c r="F35">
-        <v>0.3438702449953728</v>
+        <v>12628</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="D36">
-        <v>0.4679265500949783</v>
+        <v>15175</v>
       </c>
       <c r="E36">
-        <v>0.2307729774487361</v>
+        <v>10306</v>
       </c>
       <c r="F36">
-        <v>0.2544444985631484</v>
+        <v>10792</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1498,13 +1498,13 @@
         <v>57</v>
       </c>
       <c r="D37">
-        <v>0.4473235594953972</v>
+        <v>14752</v>
       </c>
       <c r="E37">
-        <v>0.398714139593785</v>
+        <v>13754</v>
       </c>
       <c r="F37">
-        <v>0.3005211631191856</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1518,13 +1518,13 @@
         <v>66</v>
       </c>
       <c r="D38">
-        <v>0.4686084457649408</v>
+        <v>15189</v>
       </c>
       <c r="E38">
-        <v>0.4480541619989284</v>
+        <v>14767</v>
       </c>
       <c r="F38">
-        <v>0.2594613024207296</v>
+        <v>10895</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1538,13 +1538,13 @@
         <v>90</v>
       </c>
       <c r="D39">
-        <v>0.4214115240368224</v>
+        <v>14220</v>
       </c>
       <c r="E39">
-        <v>0.3831279528517851</v>
+        <v>13434</v>
       </c>
       <c r="F39">
-        <v>0.3911158735570601</v>
+        <v>13598</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1558,13 +1558,13 @@
         <v>93</v>
       </c>
       <c r="D40">
-        <v>0.5659246992353028</v>
+        <v>17187</v>
       </c>
       <c r="E40">
-        <v>0.5139058009838781</v>
+        <v>16119</v>
       </c>
       <c r="F40">
-        <v>0.3967171594174663</v>
+        <v>13713</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1578,13 +1578,13 @@
         <v>7</v>
       </c>
       <c r="D41">
-        <v>0.1306804344649554</v>
+        <v>8251</v>
       </c>
       <c r="E41">
-        <v>0.0721348205153183</v>
+        <v>7049</v>
       </c>
       <c r="F41">
-        <v>0.1937070771029175</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1598,13 +1598,13 @@
         <v>20</v>
       </c>
       <c r="D42">
-        <v>0.09945935414738688</v>
+        <v>7610</v>
       </c>
       <c r="E42">
-        <v>0.2165992888802299</v>
+        <v>10015</v>
       </c>
       <c r="F42">
-        <v>0.3502508401928791</v>
+        <v>12759</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1618,13 +1618,13 @@
         <v>44</v>
       </c>
       <c r="D43">
-        <v>0.1166041595635868</v>
+        <v>7962</v>
       </c>
       <c r="E43">
-        <v>0.4073839559690224</v>
+        <v>13932</v>
       </c>
       <c r="F43">
-        <v>0.5049924504407969</v>
+        <v>15936</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1638,13 +1638,13 @@
         <v>55</v>
       </c>
       <c r="D44">
-        <v>0.2307729774487361</v>
+        <v>10306</v>
       </c>
       <c r="E44">
-        <v>0.2544444985631484</v>
+        <v>10792</v>
       </c>
       <c r="F44">
-        <v>0.4473235594953972</v>
+        <v>14752</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1658,13 +1658,13 @@
         <v>67</v>
       </c>
       <c r="D45">
-        <v>0.4480541619989284</v>
+        <v>14767</v>
       </c>
       <c r="E45">
-        <v>0.2594613024207296</v>
+        <v>10895</v>
       </c>
       <c r="F45">
-        <v>0.563148409721884</v>
+        <v>17130</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1678,13 +1678,13 @@
         <v>91</v>
       </c>
       <c r="D46">
-        <v>0.3831279528517851</v>
+        <v>13434</v>
       </c>
       <c r="E46">
-        <v>0.3911158735570601</v>
+        <v>13598</v>
       </c>
       <c r="F46">
-        <v>0.5659246992353028</v>
+        <v>17187</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1698,13 +1698,13 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <v>0.1848911402269738</v>
+        <v>9364</v>
       </c>
       <c r="E47">
-        <v>0.1406653353465491</v>
+        <v>8456</v>
       </c>
       <c r="F47">
-        <v>0.08129170522624324</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1718,13 +1718,13 @@
         <v>22</v>
       </c>
       <c r="D48">
-        <v>0.3502508401928791</v>
+        <v>12759</v>
       </c>
       <c r="E48">
-        <v>0.158199795431299</v>
+        <v>8816</v>
       </c>
       <c r="F48">
-        <v>0.2488432127027422</v>
+        <v>10677</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1738,13 +1738,13 @@
         <v>34</v>
       </c>
       <c r="D49">
-        <v>0.325751302907798</v>
+        <v>12256</v>
       </c>
       <c r="E49">
-        <v>0.2442647703472797</v>
+        <v>10583</v>
       </c>
       <c r="F49">
-        <v>0.2578539769129609</v>
+        <v>10862</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1758,13 +1758,13 @@
         <v>46</v>
       </c>
       <c r="D50">
-        <v>0.5049924504407969</v>
+        <v>15936</v>
       </c>
       <c r="E50">
-        <v>0.3438702449953728</v>
+        <v>12628</v>
       </c>
       <c r="F50">
-        <v>0.3262870780770542</v>
+        <v>12267</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1778,13 +1778,13 @@
         <v>58</v>
       </c>
       <c r="D51">
-        <v>0.398714139593785</v>
+        <v>13754</v>
       </c>
       <c r="E51">
-        <v>0.3005211631191856</v>
+        <v>11738</v>
       </c>
       <c r="F51">
-        <v>0.3220982903901418</v>
+        <v>12181</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="D52">
-        <v>0.5907651843553651</v>
+        <v>17697</v>
       </c>
       <c r="E52">
-        <v>0.5378695630997029</v>
+        <v>16611</v>
       </c>
       <c r="F52">
-        <v>0.3461107593395353</v>
+        <v>12674</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1818,13 +1818,13 @@
         <v>82</v>
       </c>
       <c r="D53">
-        <v>0.5841897618235838</v>
+        <v>17562</v>
       </c>
       <c r="E53">
-        <v>0.4457649408211972</v>
+        <v>14720</v>
       </c>
       <c r="F53">
-        <v>0.3242413910671667</v>
+        <v>12225</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1838,13 +1838,13 @@
         <v>94</v>
       </c>
       <c r="D54">
-        <v>0.5139058009838781</v>
+        <v>16119</v>
       </c>
       <c r="E54">
-        <v>0.3967171594174663</v>
+        <v>13713</v>
       </c>
       <c r="F54">
-        <v>0.3722176221323852</v>
+        <v>13210</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1858,13 +1858,13 @@
         <v>11</v>
       </c>
       <c r="D55">
-        <v>0.1406653353465491</v>
+        <v>8456</v>
       </c>
       <c r="E55">
-        <v>0.08129170522624324</v>
+        <v>7237</v>
       </c>
       <c r="F55">
-        <v>0.1853782085626614</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1878,13 +1878,13 @@
         <v>23</v>
       </c>
       <c r="D56">
-        <v>0.158199795431299</v>
+        <v>8816</v>
       </c>
       <c r="E56">
-        <v>0.2488432127027422</v>
+        <v>10677</v>
       </c>
       <c r="F56">
-        <v>0.2619940577663046</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1898,13 +1898,13 @@
         <v>35</v>
       </c>
       <c r="D57">
-        <v>0.2442647703472797</v>
+        <v>10583</v>
       </c>
       <c r="E57">
-        <v>0.2578539769129609</v>
+        <v>10862</v>
       </c>
       <c r="F57">
-        <v>0.2628707807705421</v>
+        <v>10965</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1918,13 +1918,13 @@
         <v>47</v>
       </c>
       <c r="D58">
-        <v>0.3438702449953728</v>
+        <v>12628</v>
       </c>
       <c r="E58">
-        <v>0.3262870780770542</v>
+        <v>12267</v>
       </c>
       <c r="F58">
-        <v>0.3361745652915104</v>
+        <v>12470</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1938,13 +1938,13 @@
         <v>59</v>
       </c>
       <c r="D59">
-        <v>0.3005211631191856</v>
+        <v>11738</v>
       </c>
       <c r="E59">
-        <v>0.3220982903901418</v>
+        <v>12181</v>
       </c>
       <c r="F59">
-        <v>0.3602844479080415</v>
+        <v>12965</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1958,13 +1958,13 @@
         <v>71</v>
       </c>
       <c r="D60">
-        <v>0.5378695630997029</v>
+        <v>16611</v>
       </c>
       <c r="E60">
-        <v>0.3461107593395353</v>
+        <v>12674</v>
       </c>
       <c r="F60">
-        <v>0.3502995470264478</v>
+        <v>12760</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1978,13 +1978,13 @@
         <v>83</v>
       </c>
       <c r="D61">
-        <v>0.4457649408211972</v>
+        <v>14720</v>
       </c>
       <c r="E61">
-        <v>0.3242413910671667</v>
+        <v>12225</v>
       </c>
       <c r="F61">
-        <v>0.2941892747552481</v>
+        <v>11608</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1998,13 +1998,13 @@
         <v>13</v>
       </c>
       <c r="D62">
-        <v>0.1853782085626614</v>
+        <v>9374</v>
       </c>
       <c r="E62">
-        <v>0.3053431396424918</v>
+        <v>11837</v>
       </c>
       <c r="F62">
-        <v>0.4001753446008475</v>
+        <v>13784</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2018,13 +2018,13 @@
         <v>37</v>
       </c>
       <c r="D63">
-        <v>0.2628707807705421</v>
+        <v>10965</v>
       </c>
       <c r="E63">
-        <v>0.430422288247041</v>
+        <v>14405</v>
       </c>
       <c r="F63">
-        <v>0.7213969119867517</v>
+        <v>20379</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2038,13 +2038,13 @@
         <v>61</v>
       </c>
       <c r="D64">
-        <v>0.3602844479080415</v>
+        <v>12965</v>
       </c>
       <c r="E64">
-        <v>0.7024499537285082</v>
+        <v>19990</v>
       </c>
       <c r="F64">
-        <v>0.8551458769665384</v>
+        <v>23125</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2058,13 +2058,13 @@
         <v>73</v>
       </c>
       <c r="D65">
-        <v>0.3502995470264478</v>
+        <v>12760</v>
       </c>
       <c r="E65">
-        <v>0.7150650236228143</v>
+        <v>20249</v>
       </c>
       <c r="F65">
-        <v>0.8069261117334762</v>
+        <v>22135</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2078,13 +2078,13 @@
         <v>85</v>
       </c>
       <c r="D66">
-        <v>0.2941892747552481</v>
+        <v>11608</v>
       </c>
       <c r="E66">
-        <v>0.750913253129414</v>
+        <v>20985</v>
       </c>
       <c r="F66">
-        <v>0.6879353173250207</v>
+        <v>19692</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2098,13 +2098,13 @@
         <v>97</v>
       </c>
       <c r="D67">
-        <v>0.4229214358774536</v>
+        <v>14251</v>
       </c>
       <c r="E67">
-        <v>0.7097072719302518</v>
+        <v>20139</v>
       </c>
       <c r="F67">
-        <v>0.7869563099702889</v>
+        <v>21725</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2118,13 +2118,13 @@
         <v>15</v>
       </c>
       <c r="D68">
-        <v>0.4001753446008475</v>
+        <v>13784</v>
       </c>
       <c r="E68">
-        <v>0.5045053821051093</v>
+        <v>15926</v>
       </c>
       <c r="F68">
-        <v>0.4019774974428912</v>
+        <v>13821</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2138,13 +2138,13 @@
         <v>27</v>
       </c>
       <c r="D69">
-        <v>0.557303589693634</v>
+        <v>17010</v>
       </c>
       <c r="E69">
-        <v>0.7467731722760703</v>
+        <v>20900</v>
       </c>
       <c r="F69">
-        <v>0.5180945886707905</v>
+        <v>16205</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2158,13 +2158,13 @@
         <v>38</v>
       </c>
       <c r="D70">
-        <v>0.430422288247041</v>
+        <v>14405</v>
       </c>
       <c r="E70">
-        <v>0.7213969119867517</v>
+        <v>20379</v>
       </c>
       <c r="F70">
-        <v>0.7091714967609956</v>
+        <v>20128</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2178,13 +2178,13 @@
         <v>62</v>
       </c>
       <c r="D71">
-        <v>0.7024499537285082</v>
+        <v>19990</v>
       </c>
       <c r="E71">
-        <v>0.8551458769665384</v>
+        <v>23125</v>
       </c>
       <c r="F71">
-        <v>0.8754079197311383</v>
+        <v>23541</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2198,13 +2198,13 @@
         <v>17</v>
       </c>
       <c r="D72">
-        <v>0.4019774974428912</v>
+        <v>13821</v>
       </c>
       <c r="E72">
-        <v>0.2715405971457795</v>
+        <v>11143</v>
       </c>
       <c r="F72">
-        <v>0.1172373483999805</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2218,13 +2218,13 @@
         <v>69</v>
       </c>
       <c r="D73">
-        <v>0.563148409721884</v>
+        <v>17130</v>
       </c>
       <c r="E73">
-        <v>0.5907651843553651</v>
+        <v>17697</v>
       </c>
       <c r="F73">
-        <v>0.5378695630997029</v>
+        <v>16611</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2238,13 +2238,13 @@
         <v>81</v>
       </c>
       <c r="D74">
-        <v>0.5146851103209781</v>
+        <v>16135</v>
       </c>
       <c r="E74">
-        <v>0.5841897618235838</v>
+        <v>17562</v>
       </c>
       <c r="F74">
-        <v>0.4457649408211972</v>
+        <v>14720</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2258,13 +2258,13 @@
         <v>79</v>
       </c>
       <c r="D75">
-        <v>0.4649067264137158</v>
+        <v>15113</v>
       </c>
       <c r="E75">
-        <v>0.3815206273440164</v>
+        <v>13401</v>
       </c>
       <c r="F75">
-        <v>0.5146851103209781</v>
+        <v>16135</v>
       </c>
     </row>
   </sheetData>
@@ -2308,7 +2308,7 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>0.02704590663856338</v>
+        <v>555.2795091963446</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2325,7 +2325,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>0.1591513109304643</v>
+        <v>3267.535564713362</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2342,7 +2342,7 @@
         <v>29</v>
       </c>
       <c r="E4">
-        <v>0.1521056367504923</v>
+        <v>3122.880828124357</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2359,7 +2359,7 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>0.2734320500669712</v>
+        <v>5613.833419924987</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2376,7 +2376,7 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>0.2990425400200458</v>
+        <v>6139.64238915156</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2393,7 +2393,7 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>0.3098128943173907</v>
+        <v>6360.768533230346</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2410,7 +2410,7 @@
         <v>88</v>
       </c>
       <c r="E8">
-        <v>0.3090277541952273</v>
+        <v>6344.64882138221</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2427,7 +2427,7 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>0.1423309409313081</v>
+        <v>2922.196548260686</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2444,7 +2444,7 @@
         <v>29</v>
       </c>
       <c r="E10">
-        <v>0.1326953000250408</v>
+        <v>2724.367204814114</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2461,7 +2461,7 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>0.2598644838771743</v>
+        <v>5335.277718482266</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2478,7 +2478,7 @@
         <v>31</v>
       </c>
       <c r="E12">
-        <v>0.2865157504767625</v>
+        <v>5882.45487303841</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2495,7 +2495,7 @@
         <v>32</v>
       </c>
       <c r="E13">
-        <v>0.2973214879074672</v>
+        <v>6104.307468228208</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2512,7 +2512,7 @@
         <v>88</v>
       </c>
       <c r="E14">
-        <v>0.299664881720075</v>
+        <v>6152.419686594861</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2529,7 +2529,7 @@
         <v>29</v>
       </c>
       <c r="E15">
-        <v>0.02295902571907149</v>
+        <v>471.3717570382568</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2546,7 +2546,7 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>0.122140466291021</v>
+        <v>2507.665913420952</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2563,7 +2563,7 @@
         <v>31</v>
       </c>
       <c r="E17">
-        <v>0.152160958807762</v>
+        <v>3124.01664528216</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2580,7 +2580,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>0.1609719191424681</v>
+        <v>3304.914471914011</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2597,7 +2597,7 @@
         <v>88</v>
       </c>
       <c r="E19">
-        <v>0.1694257013185701</v>
+        <v>3478.479073771563</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2614,7 +2614,7 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>0.140158292626878</v>
+        <v>2877.589905922432</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2631,7 +2631,7 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>0.1708954896485244</v>
+        <v>3508.655297973855</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2648,7 +2648,7 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>0.1793084266615524</v>
+        <v>3681.381307788333</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2665,7 +2665,7 @@
         <v>88</v>
       </c>
       <c r="E23">
-        <v>0.1898267590855643</v>
+        <v>3897.33319078572</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2682,7 +2682,7 @@
         <v>31</v>
       </c>
       <c r="E24">
-        <v>0.03263160350247522</v>
+        <v>669.9594515093185</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2699,7 +2699,7 @@
         <v>32</v>
       </c>
       <c r="E25">
-        <v>0.03929662583186227</v>
+        <v>806.7990249539638</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2716,7 +2716,7 @@
         <v>88</v>
       </c>
       <c r="E26">
-        <v>0.0623148624757345</v>
+        <v>1279.386441489305</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2733,7 +2733,7 @@
         <v>32</v>
       </c>
       <c r="E27">
-        <v>0.01668768906608571</v>
+        <v>342.6149442158062</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2750,7 +2750,7 @@
         <v>88</v>
       </c>
       <c r="E28">
-        <v>0.04733517431900384</v>
+        <v>971.8384639434684</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2767,7 +2767,7 @@
         <v>88</v>
       </c>
       <c r="E29">
-        <v>0.04046285325966065</v>
+        <v>830.7428402740927</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2784,7 +2784,7 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>0.1314075767759952</v>
+        <v>2697.928958787956</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2801,7 +2801,7 @@
         <v>35</v>
       </c>
       <c r="E31">
-        <v>0.2935582369206859</v>
+        <v>6027.044162218603</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2818,7 +2818,7 @@
         <v>36</v>
       </c>
       <c r="E32">
-        <v>0.4911766775921189</v>
+        <v>10084.34836764379</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2835,7 +2835,7 @@
         <v>37</v>
       </c>
       <c r="E33">
-        <v>0.4038902869869568</v>
+        <v>8292.271482129208</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2852,7 +2852,7 @@
         <v>89</v>
       </c>
       <c r="E34">
-        <v>0.5166239172682043</v>
+        <v>10606.8056454335</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2869,7 +2869,7 @@
         <v>35</v>
       </c>
       <c r="E35">
-        <v>0.1649119353506137</v>
+        <v>3385.806944683448</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2886,7 +2886,7 @@
         <v>36</v>
       </c>
       <c r="E36">
-        <v>0.3961865918251962</v>
+        <v>8134.106916763103</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2903,7 +2903,7 @@
         <v>37</v>
       </c>
       <c r="E37">
-        <v>0.3076702805626615</v>
+        <v>6316.778530232005</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2920,7 +2920,7 @@
         <v>89</v>
       </c>
       <c r="E38">
-        <v>0.4246996181739838</v>
+        <v>8719.507860730062</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2937,7 +2937,7 @@
         <v>36</v>
       </c>
       <c r="E39">
-        <v>0.3609082699241245</v>
+        <v>7409.8076898122</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2954,7 +2954,7 @@
         <v>37</v>
       </c>
       <c r="E40">
-        <v>0.2851210159890832</v>
+        <v>5853.819579271868</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2971,7 +2971,7 @@
         <v>89</v>
       </c>
       <c r="E41">
-        <v>0.3920942879357005</v>
+        <v>8050.087825607868</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2988,7 +2988,7 @@
         <v>37</v>
       </c>
       <c r="E42">
-        <v>0.0887867952363664</v>
+        <v>1822.881692997839</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3005,7 +3005,7 @@
         <v>89</v>
       </c>
       <c r="E43">
-        <v>0.0395920950024267</v>
+        <v>812.865302494823</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3022,7 +3022,7 @@
         <v>89</v>
       </c>
       <c r="E44">
-        <v>0.1183358926262793</v>
+        <v>2429.554211510142</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3039,7 +3039,7 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>0.04172864457404365</v>
+        <v>856.73080174969</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3056,7 +3056,7 @@
         <v>40</v>
       </c>
       <c r="E46">
-        <v>0.2118728038682703</v>
+        <v>4349.960536219457</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3073,7 +3073,7 @@
         <v>41</v>
       </c>
       <c r="E47">
-        <v>0.3445796533507315</v>
+        <v>7074.564862943869</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3090,7 +3090,7 @@
         <v>42</v>
       </c>
       <c r="E48">
-        <v>0.3607961548657879</v>
+        <v>7407.505855549492</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3107,7 +3107,7 @@
         <v>90</v>
       </c>
       <c r="E49">
-        <v>0.3961534968978961</v>
+        <v>8133.427444810706</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3124,7 +3124,7 @@
         <v>40</v>
       </c>
       <c r="E50">
-        <v>0.1916713870078955</v>
+        <v>3935.205246659104</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3141,7 +3141,7 @@
         <v>41</v>
       </c>
       <c r="E51">
-        <v>0.3368186950851445</v>
+        <v>6915.224628793101</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3158,7 +3158,7 @@
         <v>42</v>
       </c>
       <c r="E52">
-        <v>0.3591039879896202</v>
+        <v>7372.763977414893</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3175,7 +3175,7 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>0.3825832051026918</v>
+        <v>7854.815783963364</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3192,7 +3192,7 @@
         <v>41</v>
       </c>
       <c r="E54">
-        <v>0.1623108780524678</v>
+        <v>3332.404637295217</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3209,7 +3209,7 @@
         <v>42</v>
       </c>
       <c r="E55">
-        <v>0.2024075258630326</v>
+        <v>4155.628913493921</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3226,7 +3226,7 @@
         <v>90</v>
       </c>
       <c r="E56">
-        <v>0.2003860735836789</v>
+        <v>4114.126476746512</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3243,7 +3243,7 @@
         <v>42</v>
       </c>
       <c r="E57">
-        <v>0.05804528456299541</v>
+        <v>1191.727737362859</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3260,7 +3260,7 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>0.09279696184442818</v>
+        <v>1905.214423627955</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3277,7 +3277,7 @@
         <v>90</v>
       </c>
       <c r="E59">
-        <v>0.1196284552259868</v>
+        <v>2456.091814244736</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3294,7 +3294,7 @@
         <v>44</v>
       </c>
       <c r="E60">
-        <v>0.10286231729065</v>
+        <v>2111.866236294335</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3311,7 +3311,7 @@
         <v>45</v>
       </c>
       <c r="E61">
-        <v>0.1378394956631143</v>
+        <v>2829.9826854594</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3328,7 +3328,7 @@
         <v>46</v>
       </c>
       <c r="E62">
-        <v>0.2167234336407687</v>
+        <v>4449.548816078623</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3345,7 +3345,7 @@
         <v>47</v>
       </c>
       <c r="E63">
-        <v>0.3211669081783948</v>
+        <v>6593.877791810623</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3362,7 +3362,7 @@
         <v>48</v>
       </c>
       <c r="E64">
-        <v>0.307410879383258</v>
+        <v>6311.452764617668</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3379,7 +3379,7 @@
         <v>91</v>
       </c>
       <c r="E65">
-        <v>0.3060312821992049</v>
+        <v>6283.128254831877</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3396,7 +3396,7 @@
         <v>45</v>
       </c>
       <c r="E66">
-        <v>0.04652264172143462</v>
+        <v>955.1563571827739</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3413,7 +3413,7 @@
         <v>46</v>
       </c>
       <c r="E67">
-        <v>0.114407092119349</v>
+        <v>2348.892008302354</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3430,7 +3430,7 @@
         <v>47</v>
       </c>
       <c r="E68">
-        <v>0.2318785996020978</v>
+        <v>4760.699528430669</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3447,7 +3447,7 @@
         <v>48</v>
       </c>
       <c r="E69">
-        <v>0.2211266373252595</v>
+        <v>4539.950990924902</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3464,7 +3464,7 @@
         <v>91</v>
       </c>
       <c r="E70">
-        <v>0.215849099816813</v>
+        <v>4431.597868338989</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3481,7 +3481,7 @@
         <v>46</v>
       </c>
       <c r="E71">
-        <v>0.09661799805531908</v>
+        <v>1983.664118073757</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3498,7 +3498,7 @@
         <v>47</v>
       </c>
       <c r="E72">
-        <v>0.213829151428471</v>
+        <v>4390.126307977938</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3515,7 +3515,7 @@
         <v>48</v>
       </c>
       <c r="E73">
-        <v>0.2106064747143586</v>
+        <v>4323.961532360497</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3532,7 +3532,7 @@
         <v>91</v>
       </c>
       <c r="E74">
-        <v>0.1891564481551798</v>
+        <v>3883.571037073997</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3549,7 +3549,7 @@
         <v>47</v>
       </c>
       <c r="E75">
-        <v>0.1461428851935825</v>
+        <v>3000.459575909442</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3566,7 +3566,7 @@
         <v>48</v>
       </c>
       <c r="E76">
-        <v>0.1405497327926588</v>
+        <v>2885.626563966077</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3583,7 +3583,7 @@
         <v>91</v>
       </c>
       <c r="E77">
-        <v>0.1353854255710051</v>
+        <v>2779.598172398305</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3600,7 +3600,7 @@
         <v>48</v>
       </c>
       <c r="E78">
-        <v>0.03861802832490678</v>
+        <v>792.8667395386609</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3617,7 +3617,7 @@
         <v>91</v>
       </c>
       <c r="E79">
-        <v>0.05236486000719329</v>
+        <v>1075.102940807685</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3634,7 +3634,7 @@
         <v>91</v>
       </c>
       <c r="E80">
-        <v>0.08408115339700856</v>
+        <v>1726.270160393983</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3651,7 +3651,7 @@
         <v>50</v>
       </c>
       <c r="E81">
-        <v>0.05046606984185928</v>
+        <v>1036.118879923213</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3668,7 +3668,7 @@
         <v>51</v>
       </c>
       <c r="E82">
-        <v>0.0494873733453377</v>
+        <v>1016.025262153128</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3685,7 +3685,7 @@
         <v>52</v>
       </c>
       <c r="E83">
-        <v>0.136933618400161</v>
+        <v>2811.384119373706</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3702,7 +3702,7 @@
         <v>53</v>
       </c>
       <c r="E84">
-        <v>0.08778903792704383</v>
+        <v>1802.396737680137</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3719,7 +3719,7 @@
         <v>54</v>
       </c>
       <c r="E85">
-        <v>0.0827507457753734</v>
+        <v>1698.955561514191</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3736,7 +3736,7 @@
         <v>55</v>
       </c>
       <c r="E86">
-        <v>0.2947264169753583</v>
+        <v>6051.028066921081</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3753,7 +3753,7 @@
         <v>56</v>
       </c>
       <c r="E87">
-        <v>0.199760184406492</v>
+        <v>4101.276346049686</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3770,7 +3770,7 @@
         <v>57</v>
       </c>
       <c r="E88">
-        <v>0.251323243183504</v>
+        <v>5159.917505800521</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3787,7 +3787,7 @@
         <v>58</v>
       </c>
       <c r="E89">
-        <v>0.2662404407345473</v>
+        <v>5466.18248872099</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3804,7 +3804,7 @@
         <v>59</v>
       </c>
       <c r="E90">
-        <v>0.2697997708861966</v>
+        <v>5539.259096064504</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3821,7 +3821,7 @@
         <v>92</v>
       </c>
       <c r="E91">
-        <v>0.3616954298655429</v>
+        <v>7425.968870569461</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3838,7 +3838,7 @@
         <v>51</v>
       </c>
       <c r="E92">
-        <v>0.0641171461140166</v>
+        <v>1316.389126866875</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3855,7 +3855,7 @@
         <v>52</v>
       </c>
       <c r="E93">
-        <v>0.09691119822348568</v>
+        <v>1989.683810726385</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3872,7 +3872,7 @@
         <v>53</v>
       </c>
       <c r="E94">
-        <v>0.1097250015092362</v>
+        <v>2252.764005986128</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3889,7 +3889,7 @@
         <v>54</v>
       </c>
       <c r="E95">
-        <v>0.08042799129306111</v>
+        <v>1651.267089237837</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3906,7 +3906,7 @@
         <v>55</v>
       </c>
       <c r="E96">
-        <v>0.2512733522600125</v>
+        <v>5158.893195250314</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3923,7 +3923,7 @@
         <v>56</v>
       </c>
       <c r="E97">
-        <v>0.1734427478421985</v>
+        <v>3560.953055948178</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3940,7 +3940,7 @@
         <v>57</v>
       </c>
       <c r="E98">
-        <v>0.2125993735270083</v>
+        <v>4364.877737883006</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3957,7 +3957,7 @@
         <v>58</v>
       </c>
       <c r="E99">
-        <v>0.2301724138651211</v>
+        <v>4725.6698290648</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3974,7 +3974,7 @@
         <v>59</v>
       </c>
       <c r="E100">
-        <v>0.2264748853795601</v>
+        <v>4649.755871727748</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3991,7 +3991,7 @@
         <v>92</v>
       </c>
       <c r="E101">
-        <v>0.3226758651386412</v>
+        <v>6624.858187161443</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4008,7 +4008,7 @@
         <v>52</v>
       </c>
       <c r="E102">
-        <v>0.1423192118135357</v>
+        <v>2921.955737743701</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4025,7 +4025,7 @@
         <v>53</v>
       </c>
       <c r="E103">
-        <v>0.07010089459278912</v>
+        <v>1439.241466884553</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4042,7 +4042,7 @@
         <v>54</v>
       </c>
       <c r="E104">
-        <v>0.03808714517007435</v>
+        <v>781.9671774867962</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4059,7 +4059,7 @@
         <v>55</v>
       </c>
       <c r="E105">
-        <v>0.2760097346472707</v>
+        <v>5666.755862043115</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4076,7 +4076,7 @@
         <v>56</v>
       </c>
       <c r="E106">
-        <v>0.1586171245156461</v>
+        <v>3256.568183430732</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4093,7 +4093,7 @@
         <v>57</v>
       </c>
       <c r="E107">
-        <v>0.2240198539268189</v>
+        <v>4599.351620971519</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4110,7 +4110,7 @@
         <v>58</v>
       </c>
       <c r="E108">
-        <v>0.2407461488583713</v>
+        <v>4942.759182211221</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4127,7 +4127,7 @@
         <v>59</v>
       </c>
       <c r="E109">
-        <v>0.2437366294295897</v>
+        <v>5004.156738818906</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4144,7 +4144,7 @@
         <v>92</v>
       </c>
       <c r="E110">
-        <v>0.3328513500209681</v>
+        <v>6833.771067280496</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4161,7 +4161,7 @@
         <v>53</v>
       </c>
       <c r="E111">
-        <v>0.1520364181614268</v>
+        <v>3121.459701272254</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4178,7 +4178,7 @@
         <v>54</v>
       </c>
       <c r="E112">
-        <v>0.1341429408216551</v>
+        <v>2754.088718009401</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4195,7 +4195,7 @@
         <v>55</v>
       </c>
       <c r="E113">
-        <v>0.1777800804173752</v>
+        <v>3650.002831049131</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4212,7 +4212,7 @@
         <v>56</v>
       </c>
       <c r="E114">
-        <v>0.1700033281993351</v>
+        <v>3490.338331260548</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4229,7 +4229,7 @@
         <v>57</v>
       </c>
       <c r="E115">
-        <v>0.1589944990036588</v>
+        <v>3264.31605904412</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4246,7 +4246,7 @@
         <v>58</v>
       </c>
       <c r="E116">
-        <v>0.1666613309557349</v>
+        <v>3421.723785852193</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4263,7 +4263,7 @@
         <v>59</v>
       </c>
       <c r="E117">
-        <v>0.1800729996937458</v>
+        <v>3697.078756712296</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4280,7 +4280,7 @@
         <v>92</v>
       </c>
       <c r="E118">
-        <v>0.2618534713882004</v>
+        <v>5376.113621071142</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4297,7 +4297,7 @@
         <v>54</v>
       </c>
       <c r="E119">
-        <v>0.06814830446267277</v>
+        <v>1399.152838923135</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4314,7 +4314,7 @@
         <v>55</v>
       </c>
       <c r="E120">
-        <v>0.2828826502438379</v>
+        <v>5807.863692156236</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4331,7 +4331,7 @@
         <v>56</v>
       </c>
       <c r="E121">
-        <v>0.1737969231201265</v>
+        <v>3568.224628579317</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4348,7 +4348,7 @@
         <v>57</v>
       </c>
       <c r="E122">
-        <v>0.2310450633733315</v>
+        <v>4743.58619611787</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4365,7 +4365,7 @@
         <v>58</v>
       </c>
       <c r="E123">
-        <v>0.2368640659423447</v>
+        <v>4863.056137862281</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4382,7 +4382,7 @@
         <v>59</v>
       </c>
       <c r="E124">
-        <v>0.2645186144645381</v>
+        <v>5430.831673571431</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4399,7 +4399,7 @@
         <v>92</v>
       </c>
       <c r="E125">
-        <v>0.3356955687278642</v>
+        <v>6892.165721551778</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4416,7 +4416,7 @@
         <v>55</v>
       </c>
       <c r="E126">
-        <v>0.2479474262342483</v>
+        <v>5090.608608015352</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4433,7 +4433,7 @@
         <v>56</v>
       </c>
       <c r="E127">
-        <v>0.1233108671514355</v>
+        <v>2531.695413486122</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4450,7 +4450,7 @@
         <v>57</v>
       </c>
       <c r="E128">
-        <v>0.1918846822486049</v>
+        <v>3939.584411246107</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4467,7 +4467,7 @@
         <v>58</v>
       </c>
       <c r="E129">
-        <v>0.2078862491121138</v>
+        <v>4268.112580520809</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4484,7 +4484,7 @@
         <v>59</v>
       </c>
       <c r="E130">
-        <v>0.2151535157882483</v>
+        <v>4417.316832648526</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4501,7 +4501,7 @@
         <v>92</v>
       </c>
       <c r="E131">
-        <v>0.2991621284953246</v>
+        <v>6142.09766013751</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4518,7 +4518,7 @@
         <v>56</v>
       </c>
       <c r="E132">
-        <v>0.170155506519286</v>
+        <v>3493.46270434746</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4535,7 +4535,7 @@
         <v>57</v>
       </c>
       <c r="E133">
-        <v>0.0701650297176746</v>
+        <v>1440.558225133577</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4552,7 +4552,7 @@
         <v>58</v>
       </c>
       <c r="E134">
-        <v>0.06859367421764521</v>
+        <v>1408.296725362474</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4569,7 +4569,7 @@
         <v>59</v>
       </c>
       <c r="E135">
-        <v>0.07589439561370334</v>
+        <v>1558.187836344943</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4586,7 +4586,7 @@
         <v>92</v>
       </c>
       <c r="E136">
-        <v>0.09662196344045268</v>
+        <v>1983.745531395933</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4603,7 +4603,7 @@
         <v>57</v>
       </c>
       <c r="E137">
-        <v>0.1012452075917434</v>
+        <v>2078.665357066083</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4620,7 +4620,7 @@
         <v>58</v>
       </c>
       <c r="E138">
-        <v>0.1254814016261439</v>
+        <v>2576.258656786361</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4637,7 +4637,7 @@
         <v>59</v>
       </c>
       <c r="E139">
-        <v>0.1211813392152177</v>
+        <v>2487.974075427636</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4654,7 +4654,7 @@
         <v>92</v>
       </c>
       <c r="E140">
-        <v>0.1914935534376017</v>
+        <v>3931.554145627401</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4671,7 +4671,7 @@
         <v>58</v>
       </c>
       <c r="E141">
-        <v>0.03904440358969122</v>
+        <v>801.6206500999501</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4688,7 +4688,7 @@
         <v>59</v>
       </c>
       <c r="E142">
-        <v>0.05514152808330351</v>
+        <v>1132.110713078304</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4705,7 +4705,7 @@
         <v>92</v>
       </c>
       <c r="E143">
-        <v>0.1104370392353841</v>
+        <v>2267.38285254167</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4722,7 +4722,7 @@
         <v>59</v>
       </c>
       <c r="E144">
-        <v>0.08902413185183711</v>
+        <v>1827.754451050068</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4739,7 +4739,7 @@
         <v>92</v>
       </c>
       <c r="E145">
-        <v>0.1043169238848943</v>
+        <v>2141.730764280765</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4756,7 +4756,7 @@
         <v>92</v>
       </c>
       <c r="E146">
-        <v>0.1125733505635288</v>
+        <v>2311.243460419809</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4773,7 +4773,7 @@
         <v>61</v>
       </c>
       <c r="E147">
-        <v>0.1242989517769138</v>
+        <v>2551.981778931817</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4790,7 +4790,7 @@
         <v>62</v>
       </c>
       <c r="E148">
-        <v>0.2642528511304138</v>
+        <v>5425.375286558526</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4807,7 +4807,7 @@
         <v>63</v>
       </c>
       <c r="E149">
-        <v>0.1893644246877771</v>
+        <v>3887.841003264751</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4824,7 +4824,7 @@
         <v>64</v>
       </c>
       <c r="E150">
-        <v>0.3012773871363646</v>
+        <v>6185.526035296703</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4841,7 +4841,7 @@
         <v>93</v>
       </c>
       <c r="E151">
-        <v>0.3183418602515092</v>
+        <v>6535.876732823735</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4858,7 +4858,7 @@
         <v>62</v>
       </c>
       <c r="E152">
-        <v>0.1421709059442886</v>
+        <v>2918.910869942189</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4875,7 +4875,7 @@
         <v>63</v>
       </c>
       <c r="E153">
-        <v>0.09677919954421713</v>
+        <v>1986.973745842322</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4892,7 +4892,7 @@
         <v>64</v>
       </c>
       <c r="E154">
-        <v>0.2371222380806692</v>
+        <v>4868.356670034219</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4909,7 +4909,7 @@
         <v>93</v>
       </c>
       <c r="E155">
-        <v>0.2290845009251924</v>
+        <v>4703.333888495124</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4926,7 +4926,7 @@
         <v>63</v>
       </c>
       <c r="E156">
-        <v>0.1151096543761179</v>
+        <v>2363.316313996076</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4943,7 +4943,7 @@
         <v>64</v>
       </c>
       <c r="E157">
-        <v>0.2122281250188577</v>
+        <v>4357.255634762168</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4960,7 +4960,7 @@
         <v>93</v>
       </c>
       <c r="E158">
-        <v>0.1581268708318821</v>
+        <v>3246.502785049373</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4977,7 +4977,7 @@
         <v>64</v>
       </c>
       <c r="E159">
-        <v>0.1421872912868426</v>
+        <v>2919.247277410166</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4994,7 +4994,7 @@
         <v>93</v>
       </c>
       <c r="E160">
-        <v>0.1365739526415325</v>
+        <v>2803.999821683304</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5011,7 +5011,7 @@
         <v>93</v>
       </c>
       <c r="E161">
-        <v>0.08476643698770565</v>
+        <v>1740.339717794584</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5028,7 +5028,7 @@
         <v>66</v>
       </c>
       <c r="E162">
-        <v>0.1362898814059273</v>
+        <v>2798.167555145093</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5045,7 +5045,7 @@
         <v>67</v>
       </c>
       <c r="E163">
-        <v>0.143467376252249</v>
+        <v>2945.528701834925</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5062,7 +5062,7 @@
         <v>68</v>
       </c>
       <c r="E164">
-        <v>0.260627330892407</v>
+        <v>5350.939730552009</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5079,7 +5079,7 @@
         <v>69</v>
       </c>
       <c r="E165">
-        <v>0.2075748637555393</v>
+        <v>4261.719527764976</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5096,7 +5096,7 @@
         <v>70</v>
       </c>
       <c r="E166">
-        <v>0.3617706776691432</v>
+        <v>7427.513783225178</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5113,7 +5113,7 @@
         <v>71</v>
       </c>
       <c r="E167">
-        <v>0.3222575100340007</v>
+        <v>6616.268938508068</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5130,7 +5130,7 @@
         <v>94</v>
       </c>
       <c r="E168">
-        <v>0.2935138115607192</v>
+        <v>6026.132065153126</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5147,7 +5147,7 @@
         <v>67</v>
       </c>
       <c r="E169">
-        <v>0.05192494938570356</v>
+        <v>1066.07113583788</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5164,7 +5164,7 @@
         <v>68</v>
       </c>
       <c r="E170">
-        <v>0.1465333114204848</v>
+        <v>3008.475416773974</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5181,7 +5181,7 @@
         <v>69</v>
       </c>
       <c r="E171">
-        <v>0.09655804730205801</v>
+        <v>1982.433269158553</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5198,7 +5198,7 @@
         <v>70</v>
       </c>
       <c r="E172">
-        <v>0.2654915302214814</v>
+        <v>5450.806606977235</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5215,7 +5215,7 @@
         <v>71</v>
       </c>
       <c r="E173">
-        <v>0.2184078884392868</v>
+        <v>4484.132357546999</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>94</v>
       </c>
       <c r="E174">
-        <v>0.1815624080185896</v>
+        <v>3727.657799029662</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5249,7 +5249,7 @@
         <v>68</v>
       </c>
       <c r="E175">
-        <v>0.1248088256544828</v>
+        <v>2562.449999512186</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5266,7 +5266,7 @@
         <v>69</v>
       </c>
       <c r="E176">
-        <v>0.06484774238971172</v>
+        <v>1331.388999003171</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5283,7 +5283,7 @@
         <v>70</v>
       </c>
       <c r="E177">
-        <v>0.2339696499772212</v>
+        <v>4803.630883682328</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5300,7 +5300,7 @@
         <v>71</v>
       </c>
       <c r="E178">
-        <v>0.1930458015652125</v>
+        <v>3963.423351935378</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5317,7 +5317,7 @@
         <v>94</v>
       </c>
       <c r="E179">
-        <v>0.1546209229344933</v>
+        <v>3174.522168768081</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5334,7 +5334,7 @@
         <v>69</v>
       </c>
       <c r="E180">
-        <v>0.06631180940146457</v>
+        <v>1361.447758821469</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5351,7 +5351,7 @@
         <v>70</v>
       </c>
       <c r="E181">
-        <v>0.1229982054705417</v>
+        <v>2525.276156515692</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5368,7 +5368,7 @@
         <v>71</v>
       </c>
       <c r="E182">
-        <v>0.07451829306293815</v>
+        <v>1529.935074875184</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5385,7 +5385,7 @@
         <v>94</v>
       </c>
       <c r="E183">
-        <v>0.04075070166700043</v>
+        <v>836.6526559251854</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5402,7 +5402,7 @@
         <v>70</v>
       </c>
       <c r="E184">
-        <v>0.1768186127385648</v>
+        <v>3630.262938135474</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5419,7 +5419,7 @@
         <v>71</v>
       </c>
       <c r="E185">
-        <v>0.1360166096269058</v>
+        <v>2792.557012250004</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5436,7 +5436,7 @@
         <v>94</v>
       </c>
       <c r="E186">
-        <v>0.09135048982156167</v>
+        <v>1875.516906526483</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5453,7 +5453,7 @@
         <v>71</v>
       </c>
       <c r="E187">
-        <v>0.05478675903041461</v>
+        <v>1124.826949653442</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5470,7 +5470,7 @@
         <v>94</v>
       </c>
       <c r="E188">
-        <v>0.09400874810782771</v>
+        <v>1930.09360740181</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5487,7 +5487,7 @@
         <v>94</v>
       </c>
       <c r="E189">
-        <v>0.05670755022972017</v>
+        <v>1164.262713766385</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5504,7 +5504,7 @@
         <v>73</v>
       </c>
       <c r="E190">
-        <v>0.106850289809787</v>
+        <v>2193.743300084736</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5521,7 +5521,7 @@
         <v>74</v>
       </c>
       <c r="E191">
-        <v>0.1263753370757635</v>
+        <v>2594.6120455025</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5538,7 +5538,7 @@
         <v>75</v>
       </c>
       <c r="E192">
-        <v>0.2033506898819449</v>
+        <v>4174.993013966211</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5555,7 +5555,7 @@
         <v>76</v>
       </c>
       <c r="E193">
-        <v>0.1950503265767719</v>
+        <v>4004.578254947704</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5572,7 +5572,7 @@
         <v>77</v>
       </c>
       <c r="E194">
-        <v>0.2916043997422563</v>
+        <v>5986.929931108264</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5589,7 +5589,7 @@
         <v>95</v>
       </c>
       <c r="E195">
-        <v>0.2337735137812928</v>
+        <v>4799.604011443723</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5606,7 +5606,7 @@
         <v>74</v>
       </c>
       <c r="E196">
-        <v>0.04996379496584405</v>
+        <v>1025.806674443744</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5623,7 +5623,7 @@
         <v>75</v>
       </c>
       <c r="E197">
-        <v>0.1237925897380197</v>
+        <v>2541.585659911282</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5640,7 +5640,7 @@
         <v>76</v>
       </c>
       <c r="E198">
-        <v>0.1084476508148093</v>
+        <v>2226.53871887885</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5657,7 +5657,7 @@
         <v>77</v>
       </c>
       <c r="E199">
-        <v>0.2319539951108077</v>
+        <v>4762.247473619993</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5674,7 +5674,7 @@
         <v>95</v>
       </c>
       <c r="E200">
-        <v>0.1726413721569968</v>
+        <v>3544.500011755302</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5691,7 +5691,7 @@
         <v>75</v>
       </c>
       <c r="E201">
-        <v>0.08160429878362925</v>
+        <v>1675.417858326692</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5708,7 +5708,7 @@
         <v>76</v>
       </c>
       <c r="E202">
-        <v>0.07479201402787324</v>
+        <v>1535.554840006265</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5725,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="E203">
-        <v>0.1840623292443033</v>
+        <v>3778.98368171479</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5742,7 +5742,7 @@
         <v>95</v>
       </c>
       <c r="E204">
-        <v>0.1238149903748464</v>
+        <v>2542.045567385972</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5759,7 +5759,7 @@
         <v>76</v>
       </c>
       <c r="E205">
-        <v>0.02874007238205521</v>
+        <v>590.0624260759761</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5776,7 +5776,7 @@
         <v>77</v>
       </c>
       <c r="E206">
-        <v>0.1128837586085111</v>
+        <v>2317.616447991341</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5793,7 +5793,7 @@
         <v>95</v>
       </c>
       <c r="E207">
-        <v>0.06363824451327481</v>
+        <v>1306.556798102044</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5810,7 +5810,7 @@
         <v>77</v>
       </c>
       <c r="E208">
-        <v>0.1378532551713022</v>
+        <v>2830.265181922005</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5827,7 +5827,7 @@
         <v>95</v>
       </c>
       <c r="E209">
-        <v>0.09213924201222293</v>
+        <v>1891.710777752949</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5844,7 +5844,7 @@
         <v>95</v>
       </c>
       <c r="E210">
-        <v>0.06353448766364835</v>
+        <v>1304.426566222364</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5861,7 +5861,7 @@
         <v>79</v>
       </c>
       <c r="E211">
-        <v>0.2039878979391421</v>
+        <v>4188.075532588527</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5878,7 +5878,7 @@
         <v>80</v>
       </c>
       <c r="E212">
-        <v>0.3629895313810072</v>
+        <v>7452.538068783459</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5895,7 +5895,7 @@
         <v>81</v>
       </c>
       <c r="E213">
-        <v>0.346658937408732</v>
+        <v>7117.254643938677</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5912,7 +5912,7 @@
         <v>82</v>
       </c>
       <c r="E214">
-        <v>0.3126117805739962</v>
+        <v>6418.232466964718</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5929,7 +5929,7 @@
         <v>96</v>
       </c>
       <c r="E215">
-        <v>0.3509684940732227</v>
+        <v>7205.734151817333</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5946,7 +5946,7 @@
         <v>80</v>
       </c>
       <c r="E216">
-        <v>0.1838271461324802</v>
+        <v>3774.155137245951</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5963,7 +5963,7 @@
         <v>81</v>
       </c>
       <c r="E217">
-        <v>0.1788672878426418</v>
+        <v>3672.324286697277</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5980,7 +5980,7 @@
         <v>82</v>
       </c>
       <c r="E218">
-        <v>0.1869179721642718</v>
+        <v>3837.612886504665</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5997,7 +5997,7 @@
         <v>96</v>
       </c>
       <c r="E219">
-        <v>0.1896614079309465</v>
+        <v>3893.938366230262</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6014,7 +6014,7 @@
         <v>81</v>
       </c>
       <c r="E220">
-        <v>0.02934839003639507</v>
+        <v>602.5517958372265</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6031,7 +6031,7 @@
         <v>82</v>
       </c>
       <c r="E221">
-        <v>0.1075122234268413</v>
+        <v>2207.333459176479</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6048,7 +6048,7 @@
         <v>96</v>
       </c>
       <c r="E222">
-        <v>0.05362175546205616</v>
+        <v>1100.908261391475</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6065,7 +6065,7 @@
         <v>82</v>
       </c>
       <c r="E223">
-        <v>0.07872370961589088</v>
+        <v>1616.276482123856</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6082,7 +6082,7 @@
         <v>96</v>
       </c>
       <c r="E224">
-        <v>0.04359448445980291</v>
+        <v>895.038360444214</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6099,7 +6099,7 @@
         <v>96</v>
       </c>
       <c r="E225">
-        <v>0.09673858102851803</v>
+        <v>1986.139807096503</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6116,7 +6116,7 @@
         <v>84</v>
       </c>
       <c r="E226">
-        <v>0.1796906104349806</v>
+        <v>3689.227922840586</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6133,7 +6133,7 @@
         <v>85</v>
       </c>
       <c r="E227">
-        <v>0.2178110546256295</v>
+        <v>4471.878762518799</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6150,7 +6150,7 @@
         <v>97</v>
       </c>
       <c r="E228">
-        <v>0.3822979033458838</v>
+        <v>7848.958253594338</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6167,7 +6167,7 @@
         <v>85</v>
       </c>
       <c r="E229">
-        <v>0.1332331340775323</v>
+        <v>2735.409475745817</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6184,7 +6184,7 @@
         <v>97</v>
       </c>
       <c r="E230">
-        <v>0.2312898085864812</v>
+        <v>4748.611060089045</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6201,7 +6201,7 @@
         <v>97</v>
       </c>
       <c r="E231">
-        <v>0.1996015904599037</v>
+        <v>4098.020253732283</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6218,7 +6218,7 @@
         <v>87</v>
       </c>
       <c r="E232">
-        <v>0.3187537503503117</v>
+        <v>6544.333248442248</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6235,7 +6235,7 @@
         <v>98</v>
       </c>
       <c r="E233">
-        <v>0.2698041790857996</v>
+        <v>5539.34960081055</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6252,7 +6252,7 @@
         <v>98</v>
       </c>
       <c r="E234">
-        <v>0.06020849612072898</v>
+        <v>1236.140633854687</v>
       </c>
     </row>
   </sheetData>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3183418602515092</v>
+        <v>6535.876732823735</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3616954298655429</v>
+        <v>7425.968870569461</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6294,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2916043997422563</v>
+        <v>5986.929931108264</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6302,7 +6302,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3617706776691432</v>
+        <v>7427.513783225178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6310,7 +6310,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.3629895313810072</v>
+        <v>7452.538068783459</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6318,7 +6318,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.3211669081783948</v>
+        <v>6593.877791810623</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6326,7 +6326,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.3187537503503117</v>
+        <v>6544.333248442248</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6334,7 +6334,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.3098128943173907</v>
+        <v>6360.768533230346</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6342,7 +6342,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.3961534968978961</v>
+        <v>8133.427444810706</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6350,7 +6350,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.3822979033458838</v>
+        <v>7848.958253594338</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6358,7 +6358,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.5166239172682043</v>
+        <v>10606.8056454335</v>
       </c>
     </row>
   </sheetData>
